--- a/ViT_docs/Test scenario-ViT/result/No.3-시각화창.xlsx
+++ b/ViT_docs/Test scenario-ViT/result/No.3-시각화창.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\work\Test scenario-ViT\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\source\iitp\fork\visual-tool\ViT_docs\Test scenario-ViT\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EDB56F-BD72-4961-9208-EDE8B5906A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AA6B56-EA4D-4E88-AC45-CE609472D847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>1, 관리기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,18 +73,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 캡쳐 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 미니맵 펼치기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. HighLight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2. 시각화 창에서 Node 이동 시 미니맵 변경 여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4. 미니맵 닫기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>* 실행 결과가 겹치지 않고 정상적으로 출력되는 지 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,14 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.기능 아이콘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.ContextMenu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4. Node 선택 시 상제 정보 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,6 +154,119 @@
   </si>
   <si>
     <t>6. Node 마우스 더블클릭 시 선택/해제 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 미니맵 닫기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 미니맵 현재 포인트 표시 및 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 미니맵에 현재 포인트가 정상적으로 표시되는 지 확인 하고 미니맵에 이동할 위치를 선택하여
+현재 화면이 정상적으로 이동되는지 확인 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 하이라이트(HighLight)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 디자인 편집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 결과 수정(삭제-Delete,복구-Undo,다시 실행-Redo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 임의 정점을 선택하여 삭제하고 실행을 취소하고 취소한 내용을 다시 실행하는 기능이 정상적으로 동작하는 지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 최단 경로 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 최단 경로 기능 버튼의 동작 여부 와 최단 경로 기능 동작 여부를 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 디자인 편집 기능 창이 정상적으로 표시되고 동작 되는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.기능 아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 캡쳐 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. CSV 내보내기 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 디자인 편집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* ContextMenu 상에서 기능 확인이 되었으므로 기능 선택시 디자인 편집 기능 창이 정상 표시 여부 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Horizontal Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Vertical Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. Grid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. Circle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. Spring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 가로 나무 형태로 Layout이 변경되는지 여부 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 기본 Layout 으로 선택 시 움직이면서 표시되는지 확인 (MiniMap 활성화 시에는 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 원형 그룹 형태로 Layout이 표시되는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 격자 형태로 Layout이 변경되는지 여부 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 세로 나무 형태로 Layout이 변경되는지 여부 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 4차년도 TurboGraph++에 맞게 동작 변경 예정.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. Layout 정렬 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. ContextMenu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -238,7 +331,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -292,6 +385,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -301,7 +431,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -337,6 +467,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -619,37 +761,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="37.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="86.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="89.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="3"/>
+    <col min="1" max="1" width="20.8984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="41.19921875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="90.69921875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.69921875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="89.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -666,164 +808,296 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="10"/>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10"/>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="10"/>
       <c r="B9" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11"/>
       <c r="B10" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="8"/>
+      <c r="B15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="C15" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="5"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>33</v>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="5"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E17" s="3"/>
+    <row r="17" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="14"/>
+      <c r="B17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="5"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E18" s="3"/>
+    <row r="18" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="15"/>
+      <c r="B18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="5"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="14"/>
+      <c r="B20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="14"/>
+      <c r="B21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="14"/>
+      <c r="B22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="15"/>
+      <c r="B23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="5"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="14"/>
+      <c r="B25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="14"/>
+      <c r="B26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="15"/>
+      <c r="B27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="5"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E28" s="3"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E29" s="3"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A11:A14"/>
+  <mergeCells count="5">
+    <mergeCell ref="A11:A15"/>
     <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -837,12 +1111,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -859,9 +1133,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
